--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q2">
-        <v>98.96101941393799</v>
+        <v>1.131599417152667</v>
       </c>
       <c r="R2">
-        <v>98.96101941393799</v>
+        <v>10.184394754374</v>
       </c>
       <c r="S2">
-        <v>0.005261836844975921</v>
+        <v>5.239190703875046E-05</v>
       </c>
       <c r="T2">
-        <v>0.005261836844975921</v>
+        <v>5.239190703875046E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.37145374994741</v>
+        <v>3.987076</v>
       </c>
       <c r="N3">
-        <v>6.37145374994741</v>
+        <v>11.961228</v>
       </c>
       <c r="O3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q3">
-        <v>162.279347729068</v>
+        <v>162.4868685037413</v>
       </c>
       <c r="R3">
-        <v>162.279347729068</v>
+        <v>1462.381816533672</v>
       </c>
       <c r="S3">
-        <v>0.008628523191417378</v>
+        <v>0.007522977460598301</v>
       </c>
       <c r="T3">
-        <v>0.008628523191417378</v>
+        <v>0.007522977460598301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1687.31762033368</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>1687.31762033368</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.88543315626485</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N4">
-        <v>3.88543315626485</v>
+        <v>21.766538</v>
       </c>
       <c r="O4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q4">
-        <v>6555.959827194386</v>
+        <v>295.6867470286236</v>
       </c>
       <c r="R4">
-        <v>6555.959827194386</v>
+        <v>2661.180723257612</v>
       </c>
       <c r="S4">
-        <v>0.3485856469264988</v>
+        <v>0.01368999694423152</v>
       </c>
       <c r="T4">
-        <v>0.3485856469264988</v>
+        <v>0.01368999694423152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H5">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I5">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J5">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.37145374994741</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>6.37145374994741</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.6211878719349465</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P5">
-        <v>0.6211878719349465</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q5">
-        <v>10750.66617942737</v>
+        <v>46.90649617821333</v>
       </c>
       <c r="R5">
-        <v>10750.66617942737</v>
+        <v>422.15846560392</v>
       </c>
       <c r="S5">
-        <v>0.5716215510506368</v>
+        <v>0.002171723270648262</v>
       </c>
       <c r="T5">
-        <v>0.5716215510506368</v>
+        <v>0.002171723270648262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.88543315626485</v>
+        <v>3.987076</v>
       </c>
       <c r="N6">
-        <v>3.88543315626485</v>
+        <v>11.961228</v>
       </c>
       <c r="O6">
-        <v>0.3788121280650537</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P6">
-        <v>0.3788121280650537</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q6">
-        <v>141.3588417225984</v>
+        <v>6735.324851667307</v>
       </c>
       <c r="R6">
-        <v>141.3588417225984</v>
+        <v>60617.92366500576</v>
       </c>
       <c r="S6">
-        <v>0.007516163092741214</v>
+        <v>0.3118387197408143</v>
       </c>
       <c r="T6">
-        <v>0.007516163092741214</v>
+        <v>0.3118387197408143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.37145374994741</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N7">
-        <v>6.37145374994741</v>
+        <v>21.766538</v>
       </c>
       <c r="O7">
-        <v>0.6211878719349465</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P7">
-        <v>0.6211878719349465</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q7">
-        <v>231.8046112128967</v>
+        <v>12256.65996218455</v>
       </c>
       <c r="R7">
-        <v>231.8046112128967</v>
+        <v>110309.939659661</v>
       </c>
       <c r="S7">
-        <v>0.01232523726350731</v>
+        <v>0.5674709438788212</v>
       </c>
       <c r="T7">
-        <v>0.01232523726350731</v>
+        <v>0.5674709438788212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.4588124548977</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H8">
-        <v>84.4588124548977</v>
+        <v>302.896207</v>
       </c>
       <c r="I8">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J8">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N8">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O8">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P8">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q8">
-        <v>328.1590702510142</v>
+        <v>2.803506326589666</v>
       </c>
       <c r="R8">
-        <v>328.1590702510142</v>
+        <v>25.231556939307</v>
       </c>
       <c r="S8">
-        <v>0.01744848120083766</v>
+        <v>0.0001297995037986296</v>
       </c>
       <c r="T8">
-        <v>0.01744848120083766</v>
+        <v>0.0001297995037986296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H9">
+        <v>302.896207</v>
+      </c>
+      <c r="I9">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J9">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.987076</v>
+      </c>
+      <c r="N9">
+        <v>11.961228</v>
+      </c>
+      <c r="O9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q9">
+        <v>402.5567324735773</v>
+      </c>
+      <c r="R9">
+        <v>3623.010592262196</v>
+      </c>
+      <c r="S9">
+        <v>0.01863796904265585</v>
+      </c>
+      <c r="T9">
+        <v>0.01863796904265585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>84.4588124548977</v>
-      </c>
-      <c r="H9">
-        <v>84.4588124548977</v>
-      </c>
-      <c r="I9">
-        <v>0.04606104163022263</v>
-      </c>
-      <c r="J9">
-        <v>0.04606104163022263</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="N9">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="O9">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="P9">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="Q9">
-        <v>538.1254173318629</v>
-      </c>
-      <c r="R9">
-        <v>538.1254173318629</v>
-      </c>
-      <c r="S9">
-        <v>0.02861256042938497</v>
-      </c>
-      <c r="T9">
-        <v>0.02861256042938497</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H10">
+        <v>302.896207</v>
+      </c>
+      <c r="I10">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J10">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N10">
+        <v>21.766538</v>
+      </c>
+      <c r="O10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q10">
+        <v>732.5557555245963</v>
+      </c>
+      <c r="R10">
+        <v>6593.001799721366</v>
+      </c>
+      <c r="S10">
+        <v>0.03391658961854018</v>
+      </c>
+      <c r="T10">
+        <v>0.03391658961854018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H11">
+        <v>256.238242</v>
+      </c>
+      <c r="I11">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J11">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.027767</v>
+      </c>
+      <c r="N11">
+        <v>0.083301</v>
+      </c>
+      <c r="O11">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="P11">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="Q11">
+        <v>2.371655755204667</v>
+      </c>
+      <c r="R11">
+        <v>21.344901796842</v>
+      </c>
+      <c r="S11">
+        <v>0.0001098052596803669</v>
+      </c>
+      <c r="T11">
+        <v>0.0001098052596803669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H12">
+        <v>256.238242</v>
+      </c>
+      <c r="I12">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J12">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.987076</v>
+      </c>
+      <c r="N12">
+        <v>11.961228</v>
+      </c>
+      <c r="O12">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P12">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q12">
+        <v>340.5471149867974</v>
+      </c>
+      <c r="R12">
+        <v>3064.924034881176</v>
+      </c>
+      <c r="S12">
+        <v>0.01576698655041447</v>
+      </c>
+      <c r="T12">
+        <v>0.01576698655041447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H13">
+        <v>256.238242</v>
+      </c>
+      <c r="I13">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J13">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N13">
+        <v>21.766538</v>
+      </c>
+      <c r="O13">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P13">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q13">
+        <v>619.7132701717996</v>
+      </c>
+      <c r="R13">
+        <v>5577.419431546196</v>
+      </c>
+      <c r="S13">
+        <v>0.02869209682275813</v>
+      </c>
+      <c r="T13">
+        <v>0.02869209682275813</v>
       </c>
     </row>
   </sheetData>
